--- a/Division of Responsibilities -- Midterm Project -- Template.xlsx
+++ b/Division of Responsibilities -- Midterm Project -- Template.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file\Graduate CU\2019 spring\GR5243\midterm_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>Team Member 1 (Name)</t>
-  </si>
-  <si>
-    <t>Team Member 2 (Name)</t>
-  </si>
-  <si>
-    <t>Team Member 3 (Name)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Total (Percentage)</t>
   </si>
@@ -93,37 +91,41 @@
   </si>
   <si>
     <t>Ensuring accountability</t>
+  </si>
+  <si>
+    <t>Junzhi Sheng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yanzhi Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shengyang Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,67 +173,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -357,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -366,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -375,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -449,7 +506,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -457,7 +514,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -476,7 +533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -506,7 +563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -532,7 +589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -558,7 +615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,7 +667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,9 +784,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -744,7 +807,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -752,7 +815,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -771,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,9 +1081,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1034,7 +1103,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1053,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,64 +1373,69 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.9609" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6016" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6016" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6016" style="1" customWidth="1"/>
-    <col min="6" max="256" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="256" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.35" customHeight="1">
+    <row r="1" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="25.35" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>4</v>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.5</v>
       </c>
       <c r="C3" s="7">
@@ -1371,437 +1445,621 @@
         <v>0.25</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM($B3:$D3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="3">
+        <f t="shared" ref="E3:E38" si="0">SUM($B3:$D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.5</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="7">
-        <f>SUM($B4:$D4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="D19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="7">
-        <f>SUM($B5:$D5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8">
-        <f>SUM($B6:$D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="3">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8">
-        <f>SUM($B7:$D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="3">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8">
-        <f>SUM($B8:$D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="3">
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8">
-        <f>SUM($B9:$D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="32.35" customHeight="1">
-      <c r="A10" t="s" s="3">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8">
-        <f>SUM($B10:$D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="32.35" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8">
-        <f>SUM($B11:$D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8">
-        <f>SUM($B12:$D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8">
-        <f>SUM($B13:$D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8">
-        <f>SUM($B14:$D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8">
-        <f>SUM($B15:$D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="3">
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8">
-        <f>SUM($B16:$D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8">
-        <f>SUM($B17:$D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="42.35" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="B30" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C30" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9">
-        <f>SUM($B18:$D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="3">
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8">
-        <f>SUM($B19:$D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8">
-        <f>SUM($B20:$D20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8">
-        <f>SUM($B21:$D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8">
-        <f>SUM($B22:$D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8">
-        <f>SUM($B23:$D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8">
-        <f>SUM($B24:$D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="8">
-        <f>SUM($B25:$D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="8">
-        <f>SUM($B26:$D26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8">
-        <f>SUM($B27:$D27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8">
-        <f>SUM($B28:$D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="8">
-        <f>SUM($B29:$D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" t="s" s="3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="8">
-        <f>SUM($B30:$D30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="3">
+      <c r="B34" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:D34" si="1">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="8">
-        <f>SUM($B31:$D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="8">
-        <f>SUM($B32:$D32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="42.35" customHeight="1">
-      <c r="A33" t="s" s="4">
+      <c r="B35" s="7">
+        <f t="shared" ref="B35:D36" si="2">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="9">
-        <f>SUM($B33:$D33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="8">
-        <f>SUM($B34:$D34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="32.35" customHeight="1">
-      <c r="A35" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="8">
-        <f>SUM($B35:$D35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="8">
-        <f>SUM($B36:$D36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="20.35" customHeight="1">
+      <c r="B36" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="8">
-        <f>SUM($B37:$D37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="20.35" customHeight="1">
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="8">
-        <f>SUM($B38:$D38)</f>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
